--- a/Informes/TP Anual 1/6- Pruebas/Pruebas [1.0].xlsx
+++ b/Informes/TP Anual 1/6- Pruebas/Pruebas [1.0].xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GeneracionDatos" sheetId="1" r:id="rId1"/>
     <sheet name="ControlAutomatico" sheetId="4" r:id="rId2"/>
     <sheet name="Hydro" sheetId="5" r:id="rId3"/>
-    <sheet name="Integracion" sheetId="3" r:id="rId4"/>
+    <sheet name="Integracion" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="232">
   <si>
     <t>Sistema / Módulo</t>
   </si>
@@ -908,9 +908,6 @@
     <t>Probar las combinaciones de Rtu, BD y Módulo de control automático, entre Online y Offline, y ver que la barra de estados se actualice</t>
   </si>
   <si>
-    <t>Conectividad con el Módulo de Control Automático</t>
-  </si>
-  <si>
     <t>Configuración &gt; Alertas</t>
   </si>
   <si>
@@ -930,9 +927,6 @@
   </si>
   <si>
     <t>Configuración &gt; Usuarios &gt; Nuevo Usuario</t>
-  </si>
-  <si>
-    <t>Usuario Jefe de planta o administrador logueado</t>
   </si>
   <si>
     <t>Login como Administrador</t>
@@ -1368,13 +1362,184 @@
     <t>Usuario de cualquier categoría logueado; Clave anterior correcta; Claves nuevas distintas</t>
   </si>
   <si>
-    <t>Usuario de cualquier categoría logueado; Clave anterior correcta; claves nuevas iguales</t>
-  </si>
-  <si>
-    <t>¿Seguridad en claves?</t>
-  </si>
-  <si>
     <t>Mensaje "Error: La clave anterior no es correcta"</t>
+  </si>
+  <si>
+    <t>Usuario Jefe de planta o administrador logueado. Serie de Valores que cumpla que Min&lt;=LL&lt;=L&lt;=H&lt;=HH&lt;=Max</t>
+  </si>
+  <si>
+    <t>Usuario Jefe de planta o administrador logueado. Serie de Valores que NO cumpla que Min&lt;=LL&lt;=L&lt;=H&lt;=HH&lt;=Max</t>
+  </si>
+  <si>
+    <t>Seleccionar un sensor. Ingresar los valores. Hacer clic en "Cambiar Valores"</t>
+  </si>
+  <si>
+    <t>Actualización con éxito de los valores. Mensaje "Valores actualizados con éxito"</t>
+  </si>
+  <si>
+    <t>Mensaje de Error.</t>
+  </si>
+  <si>
+    <t>Mensaje "Error: Las claves nuevas no coinciden"</t>
+  </si>
+  <si>
+    <t>Mensaje "Clave cambiada con éxito"; Cambio de clave en la BD</t>
+  </si>
+  <si>
+    <t>Usuario de cualquier categoría logueado; Clave anterior correcta; claves nuevas iguales de menos de 8 caracteres</t>
+  </si>
+  <si>
+    <t>Mensaje "Error: La clave debe tener al menos 8 caracteres"</t>
+  </si>
+  <si>
+    <t>Usuario de cualquier categoría logueado; Clave anterior correcta; claves nuevas iguales de 8 o más caracteres</t>
+  </si>
+  <si>
+    <t>Ir a la Solapa Configuracion -&gt; Usuarios. Ingresar clave anterior y 2 veces la nueva clave. Hacer clic en cambiar. Re-Loguearse para validar si se cambió o no la clave en función del resultado del cambio de clave.</t>
+  </si>
+  <si>
+    <t>Usuario Jefe de planta o administrador logueado. Usuario: Juan; Tipo: Visitante --&gt; Jefe de Planta</t>
+  </si>
+  <si>
+    <t>Ir a la Solapa Configuracion -&gt; Usuarios. Seleccionar al usuario, y modificar su categoria. Salir del sistema y loguearse con dicho usuario y validar que se habiliten los componentes según el nuevo perfil de usuario.</t>
+  </si>
+  <si>
+    <t>Usuario cambiado de categoría</t>
+  </si>
+  <si>
+    <t>Usuario Jefe de planta o administrador logueado. Usuario: adrian</t>
+  </si>
+  <si>
+    <t>Clave del usuario reseteada al mismo nombre que el login. Mensaje "Clave de &lt;usuario&gt; reseteada con éxito a &lt;usuario&gt;"</t>
+  </si>
+  <si>
+    <t>Ir a la Solapa Configuracion -&gt; Usuarios. Seleccionar al usuario y hacer clic en "Resetear Password". Reloguearse con dicho usuario para validarlo</t>
+  </si>
+  <si>
+    <t>Usuario Jefe de planta o administrador logueado. Usuario "roberto"</t>
+  </si>
+  <si>
+    <t>Ir a la Solapa Configuracion -&gt; Usuarios. Seleccionar al usuario y hacer clic en "Eliminar Usuario".</t>
+  </si>
+  <si>
+    <t>Usuario Jefe de planta o administrador logueado. Usuario "roberto" previamente eliminado</t>
+  </si>
+  <si>
+    <t>Mensaje "Usuario &lt;usuario&gt; restaurado con exito". El usuario eliminado pasa del panel de ex usuarios al de usuarios. El usuario puede loguarse. Usuario con bit baja en 0 en la Base de datos.</t>
+  </si>
+  <si>
+    <t>Mensaje "Usuario &lt;usuario&gt; eliminado con exito". El usuario eliminado figura en el panel de ex usuarios. Usuario con bit baja en 1 en la base de datos. El usuario eliminado no puede loguearse</t>
+  </si>
+  <si>
+    <t>Ir a la Solapa Configuracion -&gt; Usuarios. Seleccionar al usuario en el panel ex usuarios y hacer clic en "Restaurar Usuario".</t>
+  </si>
+  <si>
+    <t>Usuario Jefe de planta o administrador logueado; User=daniel; TipoUsuario=""</t>
+  </si>
+  <si>
+    <t>Error: Debe Ingresar un tipo de usuario</t>
+  </si>
+  <si>
+    <t>No valida que se seleccione un tipo de usuario</t>
+  </si>
+  <si>
+    <t>Ir a la Solapa Configuracion -&gt; Usuarios. Clic en "Agregar usuario". Ingresar datos y hacer clic en agregar. Loguearse con el nuevo usuario para validar.</t>
+  </si>
+  <si>
+    <t>Usuario Jefe de planta o administrador logueado; User=daniel; TipoUsuario="Visitante"</t>
+  </si>
+  <si>
+    <t>Mensaje "usuario agregado con éxito". Usuario creado en la BD</t>
+  </si>
+  <si>
+    <t>Historicos</t>
+  </si>
+  <si>
+    <t>Ref:</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>MCA</t>
+  </si>
+  <si>
+    <t>RTU</t>
+  </si>
+  <si>
+    <t>Modbus Slave (RTU's)</t>
+  </si>
+  <si>
+    <t>Módulo de control Automático</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>Base de Datos</t>
+  </si>
+  <si>
+    <t>HYD</t>
+  </si>
+  <si>
+    <t>Escritura de Sensores; Lectura de Actuadores</t>
+  </si>
+  <si>
+    <t>Los cambios en los valores de los sensores deben corresponderse con lo enunciado en el manual técnico del Módulo de Generación de datos.</t>
+  </si>
+  <si>
+    <t>Comenzar la generación desde GD. Modificar manualmente los valores de los actuadores en las RTU y validar que se modifiquen de acuerdo al manual técnico (recordar que los cambios son probabilísticos)</t>
+  </si>
+  <si>
+    <t>RTU Conectadas; GD Generando datos</t>
+  </si>
+  <si>
+    <t>GD-RTU</t>
+  </si>
+  <si>
+    <t>Fallo en La generación de  temperaturas</t>
+  </si>
+  <si>
+    <t>Secuencias de Apagado y Encendido</t>
+  </si>
+  <si>
+    <t>GD-RTU-MCA</t>
+  </si>
+  <si>
+    <t>RTU Conectadas; GD Generando datos; MCA Conectado a la RTU</t>
+  </si>
+  <si>
+    <t>Ingresar al MCA y ejecutar secuencias. Validar mediante el log de la GUI del MCA y visualizando en las RTU los cambios en sensores y actuadores realizados por GD y MCA</t>
+  </si>
+  <si>
+    <t>Que GD responda adecuadamente a los seteos de actuadores realizados por el MCA, permitiendo una ejecución correcta de las secuencias. Que los seteos se guarden en las RTU</t>
+  </si>
+  <si>
+    <t>GD-RTU-MCA-HYD</t>
+  </si>
+  <si>
+    <t>Usuario de Hydro Administrador o Jefe de Planta logueado; Modo Manual Activado. FrenosTurbina / Álabes / Frenos Generador de 0% a 50%</t>
+  </si>
+  <si>
+    <t>Control Manual. Actuadores Graduales</t>
+  </si>
+  <si>
+    <t>Control Manual. Actuadores Binarios</t>
+  </si>
+  <si>
+    <t>Usuario de Hydro Administrador o Jefe de Planta logueado; Modo Manual Activado. Cualquier compuerta de Abierta a Cerrada y viceversa; Cualquier Sistema de Encendido a Apagado y viceversa</t>
+  </si>
+  <si>
+    <t>Que MCA reciba el mensaje de HYD y ejecute los seteos sobre las RTU. Que GD reaccione ante los seteos y esto se refleje en HYD.</t>
+  </si>
+  <si>
+    <t>Hacer clic sobre el boton "set" de algún actuador e ingresar el nuevo valor. Validar que se modifique el valor en la RTU</t>
+  </si>
+  <si>
+    <t>Hacer doble clic sobre la compuerta/válvula/sistema y validar que se modifique en la RTU.</t>
+  </si>
+  <si>
+    <t>PRUEBAS DE COMUNICACIÓN ENTRE MÓDULOS</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1457,11 +1622,91 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1481,26 +1726,1993 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="148">
+  <dxfs count="342">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3301,18 +5513,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3755,130 +5967,130 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G4 G18:G119">
-    <cfRule type="cellIs" dxfId="135" priority="35" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="35" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="36" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="133" priority="33" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="33" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="338" priority="34" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="131" priority="31" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="31" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="336" priority="32" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="129" priority="29" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="29" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="30" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="127" priority="27" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="27" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="332" priority="28" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="125" priority="25" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="25" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="26" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="123" priority="23" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="23" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="24" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="121" priority="21" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="21" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="22" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="119" priority="19" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="19" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="324" priority="20" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="117" priority="11" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="11" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="12" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="115" priority="15" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="15" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="16" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="113" priority="13" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="13" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="318" priority="14" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="2" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="109" priority="9" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="9" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="314" priority="10" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="107" priority="7" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="7" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="8" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="105" priority="3" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="4" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3892,7 +6104,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3912,18 +6124,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -4256,13 +6468,13 @@
       <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="10" t="s">
         <v>112</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="10" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4288,11 +6500,11 @@
       <c r="G14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="6"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -4524,218 +6736,218 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="G23:G115">
-    <cfRule type="cellIs" dxfId="103" priority="87" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="87" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="308" priority="88" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="101" priority="73" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="73" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="306" priority="74" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="99" priority="53" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="53" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="54" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="97" priority="51" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="51" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="302" priority="52" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="95" priority="47" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="47" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="48" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="cellIs" dxfId="93" priority="55" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="55" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="56" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="91" priority="45" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="45" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="296" priority="46" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="89" priority="49" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="49" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="294" priority="50" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="87" priority="41" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="41" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="42" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="85" priority="43" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="43" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="44" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="83" priority="35" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="35" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="36" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="81" priority="33" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="33" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="34" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="79" priority="31" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="31" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="32" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="77" priority="29" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="29" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="30" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="75" priority="27" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="27" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="28" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="73" priority="25" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="25" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="26" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="71" priority="23" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="23" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="24" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="69" priority="21" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="21" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="22" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="67" priority="19" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="19" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="20" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="65" priority="17" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="17" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="18" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="63" priority="15" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="15" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="16" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="61" priority="13" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="13" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="14" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="59" priority="11" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="11" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="12" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="9" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="10" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="55" priority="7" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="7" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="8" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="6" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="2" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4746,10 +6958,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4769,18 +6981,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -4819,16 +7031,16 @@
         <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
@@ -4842,13 +7054,13 @@
         <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="8"/>
+        <v>157</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
@@ -4861,16 +7073,16 @@
         <v>139</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
@@ -4884,16 +7096,16 @@
         <v>139</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
@@ -4907,16 +7119,16 @@
         <v>139</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
@@ -4930,16 +7142,16 @@
         <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
@@ -4971,298 +7183,515 @@
       <c r="I9" s="4"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>146</v>
+      <c r="C11" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>176</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>173</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="1" t="s">
-        <v>174</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="11" t="s">
-        <v>175</v>
-      </c>
+    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
+    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="D17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
+    <row r="18" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="D18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3"/>
     </row>
-    <row r="17" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
+    <row r="19" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="D19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
     </row>
-    <row r="18" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
+    <row r="20" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="D20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3"/>
     </row>
-    <row r="19" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>152</v>
-      </c>
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C11:C13"/>
+  <mergeCells count="6">
+    <mergeCell ref="F20:F21"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="F12:F15"/>
   </mergeCells>
-  <conditionalFormatting sqref="G30:G122">
-    <cfRule type="cellIs" dxfId="49" priority="65" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="66" operator="equal">
+  <conditionalFormatting sqref="G31:G123">
+    <cfRule type="cellIs" dxfId="255" priority="91" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="92" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="247" priority="87" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="88" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="cellIs" dxfId="235" priority="61" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="62" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="233" priority="57" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="58" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="cellIs" dxfId="231" priority="55" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="56" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="cellIs" dxfId="229" priority="53" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="54" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="227" priority="49" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="50" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="cellIs" dxfId="225" priority="47" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="48" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="223" priority="43" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="44" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="cellIs" dxfId="221" priority="41" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="42" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="219" priority="39" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="40" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="217" priority="37" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="38" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="215" priority="35" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="36" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="213" priority="33" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="34" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="211" priority="31" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="32" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="209" priority="29" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="30" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="207" priority="27" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="28" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="205" priority="25" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="26" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="203" priority="23" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="24" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="201" priority="21" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="22" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="199" priority="19" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="20" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="197" priority="17" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="18" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="195" priority="15" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="16" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="193" priority="13" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="14" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="47" priority="63" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="64" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="45" priority="59" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="60" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G14">
-    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:G10">
-    <cfRule type="cellIs" dxfId="41" priority="61" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="62" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="39" priority="51" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="52" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="37" priority="49" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="11" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="12" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="35" priority="45" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="9" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="10" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="33" priority="43" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="7" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="8" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="6" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="cellIs" dxfId="183" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="4" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="32" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="2" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5273,23 +7702,675 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="16.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="21" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="10"/>
+    </row>
+    <row r="20" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="17"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="17"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>144</v>
-      </c>
+      <c r="C35" s="20"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G31:G123">
+    <cfRule type="cellIs" dxfId="179" priority="119" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="120" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="177" priority="117" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="118" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="cellIs" dxfId="175" priority="115" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="116" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="173" priority="113" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="114" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="cellIs" dxfId="171" priority="111" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="112" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="cellIs" dxfId="169" priority="109" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="110" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="167" priority="107" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="108" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="cellIs" dxfId="165" priority="105" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="106" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="163" priority="103" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="104" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="cellIs" dxfId="161" priority="101" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="102" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="159" priority="99" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="100" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="157" priority="97" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="98" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="149" priority="89" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="90" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="147" priority="87" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="88" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="145" priority="85" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="86" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="143" priority="83" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="84" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="141" priority="81" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="82" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="139" priority="79" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="80" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="137" priority="77" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="78" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="135" priority="75" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="76" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="133" priority="73" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="74" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="131" priority="71" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="72" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="129" priority="69" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="70" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" dxfId="127" priority="67" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="68" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="125" priority="65" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="66" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="cellIs" dxfId="121" priority="61" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="62" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="cellIs" dxfId="119" priority="59" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="60" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="115" priority="57" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="58" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="cellIs" dxfId="99" priority="49" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="50" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="cellIs" dxfId="95" priority="47" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="48" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="cellIs" dxfId="91" priority="45" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="46" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="87" priority="43" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="44" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="83" priority="41" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="42" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="79" priority="39" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="40" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="cellIs" dxfId="75" priority="37" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="38" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="cellIs" dxfId="71" priority="35" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="36" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="67" priority="33" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="34" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="cellIs" dxfId="59" priority="29" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="30" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="cellIs" dxfId="55" priority="27" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="28" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="cellIs" dxfId="51" priority="25" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="26" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="39" priority="19" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="20" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Informes/TP Anual 1/6- Pruebas/Pruebas [1.0].xlsx
+++ b/Informes/TP Anual 1/6- Pruebas/Pruebas [1.0].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GeneracionDatos" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="244">
   <si>
     <t>Sistema / Módulo</t>
   </si>
@@ -1452,9 +1452,6 @@
     <t>Mensaje "usuario agregado con éxito". Usuario creado en la BD</t>
   </si>
   <si>
-    <t>Historicos</t>
-  </si>
-  <si>
     <t>Ref:</t>
   </si>
   <si>
@@ -1540,6 +1537,45 @@
   </si>
   <si>
     <t>PRUEBAS DE COMUNICACIÓN ENTRE MÓDULOS</t>
+  </si>
+  <si>
+    <t>Historicos &gt; Sensado</t>
+  </si>
+  <si>
+    <t>Historicos &gt; Alertas</t>
+  </si>
+  <si>
+    <t>Historicos &gt; Usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario Jefe de planta o administrador logueado; </t>
+  </si>
+  <si>
+    <t>Usuario no visitante logueado; FechaInicio&lt;FechaFin</t>
+  </si>
+  <si>
+    <t>Usuario no visitante logueado; FechaInicio&gt;FechaFin</t>
+  </si>
+  <si>
+    <t>Mensaje "Las fechas ingresadas no son válidas"</t>
+  </si>
+  <si>
+    <t>Se debe mostrar un gráfico de los valores histórico del sensor elegido, de acuerdo a las fechas y horas ingresadas.</t>
+  </si>
+  <si>
+    <t>Alertas por fecha, de existir</t>
+  </si>
+  <si>
+    <t>Actividades realizadas por el usuario</t>
+  </si>
+  <si>
+    <t>No hay posible error</t>
+  </si>
+  <si>
+    <t>Ir a solapa Históricos -&gt; Sensado. Seleccionar un sensor y las fechas. Hacer clic en "Ver Histórico"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ir a solapa Históricos -&gt; Usuarios. Navegar por los usuarios hasta elegir el usuario y día deseado. </t>
   </si>
 </sst>
 </file>
@@ -1594,13 +1630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,7 +1742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1726,20 +1762,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1753,13 +1777,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1768,751 +1801,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="342">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="268">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5492,8 +4797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5513,18 +4818,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -5967,130 +5272,130 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G4 G18:G119">
-    <cfRule type="cellIs" dxfId="341" priority="35" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="35" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="36" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="339" priority="33" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="33" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="34" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="337" priority="31" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="31" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="32" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="335" priority="29" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="29" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="30" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="333" priority="27" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="27" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="28" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="331" priority="25" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="25" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="26" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="329" priority="23" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="23" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="24" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="327" priority="21" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="21" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="22" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="325" priority="19" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="19" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="20" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="323" priority="11" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="11" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="12" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="321" priority="15" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="15" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="16" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="319" priority="13" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="13" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="14" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="317" priority="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="2" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="315" priority="9" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="9" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="10" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="313" priority="7" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="7" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="8" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="311" priority="3" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="4" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6103,7 +5408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -6124,18 +5429,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -6468,13 +5773,13 @@
       <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="14" t="s">
         <v>112</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="14" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6500,11 +5805,11 @@
       <c r="G14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -6736,218 +6041,218 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="G23:G115">
-    <cfRule type="cellIs" dxfId="309" priority="87" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="87" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="88" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="307" priority="73" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="73" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="74" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="305" priority="53" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="53" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="54" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="303" priority="51" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="51" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="52" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="301" priority="47" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="47" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="48" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="cellIs" dxfId="299" priority="55" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="55" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="56" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="297" priority="45" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="45" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="46" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="295" priority="49" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="49" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="50" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="293" priority="41" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="41" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="42" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="291" priority="43" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="43" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="44" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="289" priority="35" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="35" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="36" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="287" priority="33" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="33" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="34" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="285" priority="31" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="31" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="32" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="283" priority="29" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="29" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="30" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="281" priority="27" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="27" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="28" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="279" priority="25" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="25" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="26" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="277" priority="23" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="23" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="24" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="275" priority="21" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="21" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="22" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="273" priority="19" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="19" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="20" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="271" priority="17" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="17" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="18" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="269" priority="15" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="15" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="16" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="267" priority="13" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="13" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="14" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="265" priority="11" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="11" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="12" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="263" priority="9" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="9" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="10" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="261" priority="7" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="7" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="8" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="259" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="6" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="257" priority="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="2" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6958,10 +6263,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6981,18 +6286,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -7036,10 +6341,10 @@
       <c r="D3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="15" t="s">
         <v>164</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -7059,8 +6364,8 @@
       <c r="D4" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
@@ -7234,7 +6539,7 @@
       <c r="B12" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="14" t="s">
         <v>145</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -7243,7 +6548,7 @@
       <c r="E12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="14" t="s">
         <v>183</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -7257,14 +6562,14 @@
       <c r="B13" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="1" t="s">
         <v>171</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="6" t="s">
         <v>8</v>
       </c>
@@ -7276,14 +6581,14 @@
       <c r="B14" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="6" t="s">
         <v>8</v>
       </c>
@@ -7295,14 +6600,14 @@
       <c r="B15" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="1" t="s">
         <v>182</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="6" t="s">
         <v>8</v>
       </c>
@@ -7330,7 +6635,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>147</v>
       </c>
@@ -7350,7 +6655,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>148</v>
       </c>
@@ -7370,7 +6675,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>149</v>
       </c>
@@ -7390,7 +6695,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>150</v>
       </c>
@@ -7400,7 +6705,7 @@
       <c r="E20" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="14" t="s">
         <v>199</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -7414,7 +6719,7 @@
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>150</v>
       </c>
@@ -7424,7 +6729,7 @@
       <c r="E21" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="6" t="s">
         <v>8</v>
       </c>
@@ -7432,22 +6737,352 @@
       <c r="I21" s="4"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
+    <row r="22" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="22"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="22"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="22"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="22"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="22"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="22"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="22"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="E3:E4"/>
@@ -7456,242 +7091,242 @@
     <mergeCell ref="F12:F15"/>
   </mergeCells>
   <conditionalFormatting sqref="G31:G123">
-    <cfRule type="cellIs" dxfId="255" priority="91" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="99" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="100" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="247" priority="87" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="95" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="96" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="171" priority="65" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="66" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="cellIs" dxfId="169" priority="63" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="64" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" dxfId="161" priority="51" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="52" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="cellIs" dxfId="159" priority="49" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="50" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" dxfId="157" priority="47" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="48" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="155" priority="45" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="46" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="153" priority="43" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="44" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="151" priority="41" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="42" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="cellIs" dxfId="149" priority="39" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="40" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="147" priority="37" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="38" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="cellIs" dxfId="145" priority="35" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="36" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="cellIs" dxfId="143" priority="33" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="34" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="cellIs" dxfId="141" priority="31" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="32" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="cellIs" dxfId="139" priority="29" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="30" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="cellIs" dxfId="137" priority="27" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="28" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" dxfId="135" priority="25" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="26" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="cellIs" dxfId="133" priority="23" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="24" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="131" priority="21" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="22" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="129" priority="19" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="20" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="127" priority="17" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="18" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="cellIs" dxfId="125" priority="15" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="16" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="123" priority="13" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="14" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="cellIs" dxfId="121" priority="11" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="12" operator="equal">
+      <formula>"Fallo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="cellIs" dxfId="119" priority="9" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="10" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="235" priority="61" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="62" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="233" priority="57" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="58" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="231" priority="55" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="7" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="8" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="229" priority="53" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="6" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="227" priority="49" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="225" priority="47" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="48" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="223" priority="43" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="44" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="221" priority="41" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="42" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="219" priority="39" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="40" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="217" priority="37" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="38" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="215" priority="35" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="36" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="213" priority="33" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="34" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="211" priority="31" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="32" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="209" priority="29" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="30" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="207" priority="27" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="28" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="205" priority="25" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="26" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="203" priority="23" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="24" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="201" priority="21" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="22" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="199" priority="19" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="20" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="197" priority="17" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="18" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="195" priority="15" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="16" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="193" priority="13" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="14" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="191" priority="11" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="12" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="189" priority="9" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="10" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="187" priority="7" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="8" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="185" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="6" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="183" priority="3" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="4" operator="equal">
-      <formula>"Fallo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="181" priority="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7705,7 +7340,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:J7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7725,18 +7360,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="A1" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -7772,25 +7407,25 @@
     </row>
     <row r="3" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>8</v>
@@ -7799,19 +7434,19 @@
     </row>
     <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>8</v>
@@ -7822,19 +7457,19 @@
     </row>
     <row r="5" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>8</v>
@@ -7845,17 +7480,17 @@
     </row>
     <row r="6" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>8</v>
@@ -7865,29 +7500,29 @@
       <c r="J6" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="10"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="10"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="10"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="10"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="20" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>204</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>5</v>
@@ -7895,446 +7530,446 @@
       <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C32" s="17"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B33" s="16" t="s">
+      <c r="C33" s="17"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C33" s="17"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="B34" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C34" s="17"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="20"/>
+      <c r="C35" s="19"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="G31:G123">
-    <cfRule type="cellIs" dxfId="179" priority="119" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="119" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="120" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="177" priority="117" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="117" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="118" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="175" priority="115" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="115" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="116" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="173" priority="113" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="113" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="114" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="171" priority="111" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="111" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="112" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="169" priority="109" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="109" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="110" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="167" priority="107" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="107" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="108" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="165" priority="105" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="105" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="106" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="163" priority="103" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="103" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="104" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="161" priority="101" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="101" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="102" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="159" priority="99" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="99" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="100" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="157" priority="97" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="97" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="98" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="149" priority="89" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="89" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="90" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="147" priority="87" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="87" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="88" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="145" priority="85" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="85" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="86" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="143" priority="83" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="83" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="84" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="141" priority="81" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="139" priority="79" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="79" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="80" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="137" priority="77" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="77" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="78" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="135" priority="75" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="75" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="76" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="133" priority="73" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="131" priority="71" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="129" priority="69" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="127" priority="67" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="125" priority="65" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="66" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="121" priority="61" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="119" priority="59" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="115" priority="57" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="99" priority="49" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="49" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="50" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="95" priority="47" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="47" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="48" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="91" priority="45" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="45" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="46" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="87" priority="43" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="43" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="44" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="83" priority="41" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="42" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="79" priority="39" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="39" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="40" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="75" priority="37" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="37" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="71" priority="35" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="67" priority="33" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="33" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="59" priority="29" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="55" priority="27" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="51" priority="25" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="47" priority="23" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="39" priority="19" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8347,26 +7982,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Informes/TP Anual 1/6- Pruebas/Pruebas [1.0].xlsx
+++ b/Informes/TP Anual 1/6- Pruebas/Pruebas [1.0].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="GeneracionDatos" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="247">
   <si>
     <t>Sistema / Módulo</t>
   </si>
@@ -340,110 +340,6 @@
     <t>Inserción de un error en el sistema de enfriamiento</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">RTU Conectadas;  Generando Datos; </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Caudal:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Valor Fijo (=60)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RTU Conectadas;  Generando Datos; </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Caudal:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Valor Fijo (=30)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RTU Conectadas;  Generando Datos; </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Caudal:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Mucho</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RTU Conectadas;  Generando Datos; </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Caudal:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Poco</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">RTU Conectadas;  Generando Datos; </t>
   </si>
   <si>
@@ -484,84 +380,6 @@
   </si>
   <si>
     <t>Variaciones en los valores generados</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RTU Conectadas;  Generando Datos; Actuadores  de válvulas y compuertas abiertos; </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rango Sensores</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Sin Problemas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RTU Conectadas;  Generando Datos; Actuadores  de válvulas y compuertas abiertos; </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rango Sensores</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Alerta Leve</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RTU Conectadas;  Generando Datos; Actuadores  de válvulas y compuertas abiertos; </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rango Sensores</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Alerta Grave</t>
-    </r>
   </si>
   <si>
     <t>Que en el simulador de RTU las temperaturas y presiones oscilen entre los valores L &lt; xxx &lt; H</t>
@@ -1576,13 +1394,411 @@
   </si>
   <si>
     <t xml:space="preserve">Ir a solapa Históricos -&gt; Usuarios. Navegar por los usuarios hasta elegir el usuario y día deseado. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IP:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 127.0.0.1; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Puerto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 502; Simulador RTU escuchando en esa IP:Puerto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IP:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 192.168.3.55; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Puerto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 502; Simulador RTU </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No está</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>escuchando</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en esa IP:Puerto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IP:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 127.0.0.1; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Puerto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 502; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tasa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de Refresco</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 2000ms;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RTU Conectadas;  Generando Datos; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Caudal:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Poco</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RTU Conectadas;  Generando Datos; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Caudal:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mucho</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RTU Conectadas;  Generando Datos; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Caudal:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Valor Fijo (=30)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RTU Conectadas;  Generando Datos; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Caudal:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Valor Fijo (=60)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RTU Conectadas;  Generando Datos; Actuadores  de válvulas y compuertas abiertos; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rango Sensores</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Sin Problemas</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RTU Conectadas;  Generando Datos; Actuadores  de válvulas y compuertas abiertos; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rango Sensores</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Alerta Leve</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RTU Conectadas;  Generando Datos; Actuadores  de válvulas y compuertas abiertos; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rango Sensores</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Alerta Grave</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1610,6 +1826,37 @@
       <b/>
       <sz val="13"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1742,7 +1989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1780,10 +2027,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1801,183 +2060,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="268">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="252">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4797,474 +4902,474 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="28"/>
+    </row>
+    <row r="7" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>6</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>7</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>8</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>9</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>10</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B13" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
+        <v>11</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <v>12</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="B16" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>14</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="C17" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="H17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="J17" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5272,130 +5377,130 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G4 G18:G119">
-    <cfRule type="cellIs" dxfId="263" priority="35" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="35" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="36" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="261" priority="33" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="33" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="34" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="259" priority="31" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="31" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="32" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="257" priority="29" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="29" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="30" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="255" priority="27" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="27" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="28" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="253" priority="25" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="25" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="26" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="251" priority="23" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="23" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="24" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="249" priority="21" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="21" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="22" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="247" priority="19" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="19" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="20" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="245" priority="11" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="11" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="12" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="243" priority="15" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="15" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="16" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="241" priority="13" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="13" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="14" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="239" priority="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="2" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="237" priority="9" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="9" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="10" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="235" priority="7" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="7" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="8" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="233" priority="3" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="4" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5429,18 +5534,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -5468,7 +5573,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>3</v>
@@ -5479,7 +5584,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -5488,10 +5593,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
@@ -5505,7 +5610,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -5517,7 +5622,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
@@ -5537,7 +5642,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
@@ -5546,10 +5651,10 @@
         <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
@@ -5563,7 +5668,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -5575,7 +5680,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
@@ -5589,25 +5694,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="3"/>
@@ -5617,19 +5722,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
@@ -5643,19 +5748,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
@@ -5668,31 +5773,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -5700,19 +5805,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
@@ -5726,25 +5831,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>8</v>
@@ -5756,31 +5861,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>112</v>
+      <c r="H13" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="14" t="s">
-        <v>113</v>
+      <c r="J13" s="17" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="150" x14ac:dyDescent="0.25">
@@ -5788,59 +5893,59 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="14"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="165" x14ac:dyDescent="0.25">
@@ -5848,25 +5953,25 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="3"/>
@@ -5876,31 +5981,31 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="165" x14ac:dyDescent="0.25">
@@ -5908,25 +6013,25 @@
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="3"/>
@@ -5936,25 +6041,25 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="3"/>
@@ -5964,16 +6069,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>8</v>
@@ -5987,19 +6092,19 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>8</v>
@@ -6013,19 +6118,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>8</v>
@@ -6041,218 +6146,218 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="G23:G115">
-    <cfRule type="cellIs" dxfId="231" priority="87" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="87" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="88" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="229" priority="73" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="73" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="74" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="227" priority="53" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="53" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="54" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="225" priority="51" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="51" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="52" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="223" priority="47" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="47" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="48" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="cellIs" dxfId="221" priority="55" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="55" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="56" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="219" priority="45" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="45" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="46" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="217" priority="49" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="49" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="50" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="215" priority="41" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="41" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="42" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="213" priority="43" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="43" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="44" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="211" priority="35" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="35" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="36" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="209" priority="33" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="33" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="34" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="207" priority="31" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="31" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="32" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="205" priority="29" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="29" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="30" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="203" priority="27" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="27" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="28" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="201" priority="25" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="25" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="26" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="199" priority="23" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="23" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="24" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="197" priority="21" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="21" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="22" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="195" priority="19" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="19" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="20" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="193" priority="17" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="17" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="18" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="191" priority="15" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="15" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="16" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="189" priority="13" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="13" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="14" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="187" priority="11" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="11" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="12" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="185" priority="9" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="9" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="10" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="183" priority="7" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="7" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="8" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="181" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="6" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="179" priority="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="2" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6286,18 +6391,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -6325,7 +6430,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>3</v>
@@ -6333,19 +6438,19 @@
     </row>
     <row r="3" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>164</v>
+        <v>152</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
@@ -6356,16 +6461,16 @@
     </row>
     <row r="4" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
+        <v>150</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
@@ -6375,19 +6480,19 @@
     </row>
     <row r="5" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
@@ -6398,19 +6503,19 @@
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
@@ -6421,19 +6526,19 @@
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
@@ -6444,19 +6549,19 @@
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
@@ -6467,19 +6572,19 @@
     </row>
     <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
@@ -6490,19 +6595,19 @@
     </row>
     <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>8</v>
@@ -6514,19 +6619,19 @@
     <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>8</v>
@@ -6537,19 +6642,19 @@
     </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>145</v>
+        <v>132</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>183</v>
+        <v>165</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>176</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>8</v>
@@ -6560,16 +6665,16 @@
     </row>
     <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="14"/>
+        <v>132</v>
+      </c>
+      <c r="C13" s="17"/>
       <c r="D13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="6" t="s">
         <v>8</v>
       </c>
@@ -6579,16 +6684,16 @@
     </row>
     <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="14"/>
+        <v>132</v>
+      </c>
+      <c r="C14" s="17"/>
       <c r="D14" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F14" s="14"/>
+        <v>174</v>
+      </c>
+      <c r="F14" s="17"/>
       <c r="G14" s="6" t="s">
         <v>8</v>
       </c>
@@ -6598,16 +6703,16 @@
     </row>
     <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="14"/>
+        <v>132</v>
+      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F15" s="14"/>
+        <v>172</v>
+      </c>
+      <c r="F15" s="17"/>
       <c r="G15" s="6" t="s">
         <v>8</v>
       </c>
@@ -6617,16 +6722,16 @@
     </row>
     <row r="16" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>8</v>
@@ -6637,16 +6742,16 @@
     </row>
     <row r="17" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>8</v>
@@ -6657,16 +6762,16 @@
     </row>
     <row r="18" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>8</v>
@@ -6677,16 +6782,16 @@
     </row>
     <row r="19" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>8</v>
@@ -6697,22 +6802,22 @@
     </row>
     <row r="20" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>199</v>
+        <v>190</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>192</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>8</v>
@@ -6721,15 +6826,15 @@
     </row>
     <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F21" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="F21" s="17"/>
       <c r="G21" s="6" t="s">
         <v>8</v>
       </c>
@@ -6738,19 +6843,19 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="D22" s="22" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>235</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>242</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>8</v>
@@ -6758,326 +6863,326 @@
       <c r="H22" s="3"/>
       <c r="I22" s="4"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="F23" s="23"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="4"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>243</v>
+      <c r="F24" s="18" t="s">
+        <v>236</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="22" t="s">
-        <v>241</v>
+      <c r="H24" s="15" t="s">
+        <v>234</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="22" t="s">
-        <v>241</v>
+      <c r="H25" s="15" t="s">
+        <v>234</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="22"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="22"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="22"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="15"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="22"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="22"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="22"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="22"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="22"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="15"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="22"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="15"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="22"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7091,242 +7196,242 @@
     <mergeCell ref="F12:F15"/>
   </mergeCells>
   <conditionalFormatting sqref="G31:G123">
-    <cfRule type="cellIs" dxfId="177" priority="99" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="99" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="100" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="175" priority="95" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="95" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="96" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="171" priority="65" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="65" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="66" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="169" priority="63" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="63" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="64" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="161" priority="51" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="51" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="52" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="159" priority="49" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="49" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="50" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="157" priority="47" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="47" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="48" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="155" priority="45" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="45" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="46" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="153" priority="43" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="43" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="44" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="151" priority="41" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="41" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="42" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="149" priority="39" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="39" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="40" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="147" priority="37" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="37" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="38" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="145" priority="35" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="35" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="36" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="143" priority="33" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="33" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="34" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="141" priority="31" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="31" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="32" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="139" priority="29" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="29" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="30" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="137" priority="27" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="27" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="28" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="135" priority="25" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="25" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="26" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="133" priority="23" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="23" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="24" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="131" priority="21" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="21" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="22" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="129" priority="19" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="19" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="20" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="127" priority="17" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="17" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="18" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="125" priority="15" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="15" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="16" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="123" priority="13" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="13" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="14" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="121" priority="11" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="11" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="12" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="119" priority="9" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="9" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="10" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="117" priority="7" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="8" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="115" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7339,7 +7444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -7360,18 +7465,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="A1" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -7399,7 +7504,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>3</v>
@@ -7407,25 +7512,25 @@
     </row>
     <row r="3" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>8</v>
@@ -7434,19 +7539,19 @@
     </row>
     <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>8</v>
@@ -7457,19 +7562,19 @@
     </row>
     <row r="5" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>227</v>
+        <v>216</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>220</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>8</v>
@@ -7480,17 +7585,17 @@
     </row>
     <row r="6" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>8</v>
@@ -7500,74 +7605,74 @@
       <c r="J6" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="14"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
+      <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
+      <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
+      <c r="C15" s="17"/>
     </row>
     <row r="20" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B31" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="21"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="C32" s="17"/>
+        <v>198</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" s="17"/>
+        <v>197</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="21"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C34" s="17"/>
+        <v>201</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34" s="21"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="19"/>
+        <v>203</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7582,426 +7687,426 @@
     <mergeCell ref="B35:C35"/>
   </mergeCells>
   <conditionalFormatting sqref="G31:G123">
-    <cfRule type="cellIs" dxfId="113" priority="119" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="119" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="120" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="111" priority="117" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="117" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="118" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="109" priority="115" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="115" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="116" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="107" priority="113" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="113" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="114" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="cellIs" dxfId="105" priority="111" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="111" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="112" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="103" priority="109" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="109" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="110" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="101" priority="107" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="107" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="108" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="99" priority="105" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="105" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="106" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="97" priority="103" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="103" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="104" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="95" priority="101" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="101" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="102" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="93" priority="99" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="99" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="100" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="91" priority="97" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="97" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="98" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="89" priority="89" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="89" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="90" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="87" priority="87" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="87" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="88" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="85" priority="85" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="85" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="86" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="83" priority="83" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="83" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="84" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="81" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="82" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="79" priority="79" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="79" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="80" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="77" priority="77" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="77" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="78" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="75" priority="75" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="75" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="76" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="73" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="74" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="71" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="72" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="69" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="70" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="67" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="68" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="65" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="66" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="60" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="57" priority="49" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="55" priority="47" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="53" priority="45" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="51" priority="43" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="47" priority="39" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="45" priority="37" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="41" priority="33" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Informes/TP Anual 1/6- Pruebas/Pruebas [1.0].xlsx
+++ b/Informes/TP Anual 1/6- Pruebas/Pruebas [1.0].xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="8055" windowHeight="8115" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GeneracionDatos" sheetId="1" r:id="rId1"/>
     <sheet name="ControlAutomatico" sheetId="4" r:id="rId2"/>
     <sheet name="Hydro" sheetId="5" r:id="rId3"/>
     <sheet name="Integracion" sheetId="6" r:id="rId4"/>
+    <sheet name="WEB" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="275">
   <si>
     <t>Sistema / Módulo</t>
   </si>
@@ -1792,6 +1793,227 @@
       </rPr>
       <t>: Alerta Grave</t>
     </r>
+  </si>
+  <si>
+    <t>Login Web</t>
+  </si>
+  <si>
+    <t>Login como administrador</t>
+  </si>
+  <si>
+    <t>El usuario ingresa al sitio web, a la página principal del sistema</t>
+  </si>
+  <si>
+    <t>Comprobar mensaje de bienvenida y menú de opciones a la izquierda</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Login con usuario no registrado en la BD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> admin </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pass: 123456</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Usuario:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Luis Villa </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pass:111111</t>
+    </r>
+  </si>
+  <si>
+    <t>El usuario no ingresa al sitio web, sino que se mantiene en la misma página</t>
+  </si>
+  <si>
+    <t>Ingresar los datos en los campos. Comprobar que se visualice el mensaje de error</t>
+  </si>
+  <si>
+    <t>Login sin ingresar datos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Usuario:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Vacio) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pass:(Vacio)</t>
+    </r>
+  </si>
+  <si>
+    <t>Ingresar sin llenar los campos. Comprobar que se visualice el mensaje de error</t>
+  </si>
+  <si>
+    <t>Estadisticas Web</t>
+  </si>
+  <si>
+    <t>Solicitar datos estadisticos sin ingresar rango de tiempo</t>
+  </si>
+  <si>
+    <t>Se visualiza gráfico sin datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seleccionado "Voltaje generado". Sin seleccionar rango. </t>
+  </si>
+  <si>
+    <t>Debería visualizarse un mensaje de error, para completar datos</t>
+  </si>
+  <si>
+    <t>Solicitar datos estadisticos ingresando todos los datos</t>
+  </si>
+  <si>
+    <t>Usuario logueado. Sensor a requerir: Voltaje Generado. Campos "Desde" y "Hasta" vacios</t>
+  </si>
+  <si>
+    <t>Se visualiza gráfico para el rango de tiempo dado</t>
+  </si>
+  <si>
+    <t>Seleccionado "Voltaje generado". Seleccionar rango de fecha</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Usuario logueado. Sensor a requerir: Voltaje generado. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Desde:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 29/08/2011</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Hasta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 30/08/2011</t>
+    </r>
+  </si>
+  <si>
+    <t>Modificación de Apertura de Álabes de Turbina</t>
+  </si>
+  <si>
+    <t>Usuario de Hydro Administrador o Jefe de Planta logueado; Modo Manual Activado. Apertura Álabes al 70%</t>
+  </si>
+  <si>
+    <t>Que MCA reciba el mensaje de HYD y ejecute los seteos sobre las RTU. Que GD reaccione ante los seteos y esto se refleje en HYD. Visualización de los valores correctos en el el sitio Web</t>
+  </si>
+  <si>
+    <t>1.    El usuario se loguea en el sistema y en el sitio web. Se visualizan los datos en tiempo real. Desde el sistema setea el valor para la apertura de los álabes. Cambios de los valores se visualizan en ambos sistemas</t>
   </si>
 </sst>
 </file>
@@ -1862,7 +2084,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1884,6 +2106,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1989,7 +2223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2036,10 +2270,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2060,22 +2315,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4605,6 +4857,15 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFF7C80"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4902,8 +5163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4923,452 +5184,452 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="28"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="28"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="28"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="28"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="28"/>
-    </row>
-    <row r="9" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <v>7</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="28"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="28"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="18">
         <v>9</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="28"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+      <c r="A12" s="18">
         <v>10</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="28"/>
-    </row>
-    <row r="13" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
         <v>11</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="28"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
+      <c r="A14" s="18">
         <v>11</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="28"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
+      <c r="A15" s="18">
         <v>12</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="28"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
+      <c r="A16" s="18">
         <v>13</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="28"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
+      <c r="A17" s="18">
         <v>14</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5534,18 +5795,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -5878,13 +6139,13 @@
       <c r="G13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="23" t="s">
         <v>105</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="23" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5910,11 +6171,11 @@
       <c r="G14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="17"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="17"/>
+      <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -6370,8 +6631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6391,18 +6652,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -6446,10 +6707,10 @@
       <c r="D3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="26" t="s">
         <v>157</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -6469,8 +6730,8 @@
       <c r="D4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="19"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
@@ -6644,7 +6905,7 @@
       <c r="B12" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="23" t="s">
         <v>138</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -6653,7 +6914,7 @@
       <c r="E12" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="23" t="s">
         <v>176</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -6667,14 +6928,14 @@
       <c r="B13" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="6" t="s">
         <v>8</v>
       </c>
@@ -6686,14 +6947,14 @@
       <c r="B14" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="6" t="s">
         <v>8</v>
       </c>
@@ -6705,14 +6966,14 @@
       <c r="B15" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="1" t="s">
         <v>175</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F15" s="17"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="6" t="s">
         <v>8</v>
       </c>
@@ -6810,7 +7071,7 @@
       <c r="E20" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="23" t="s">
         <v>192</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -6834,7 +7095,7 @@
       <c r="E21" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="6" t="s">
         <v>8</v>
       </c>
@@ -6854,7 +7115,7 @@
       <c r="E22" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="25" t="s">
         <v>235</v>
       </c>
       <c r="G22" s="7" t="s">
@@ -6878,7 +7139,7 @@
       <c r="E23" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="7" t="s">
         <v>8</v>
       </c>
@@ -6900,7 +7161,7 @@
       <c r="E24" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="25" t="s">
         <v>236</v>
       </c>
       <c r="G24" s="7" t="s">
@@ -6926,7 +7187,7 @@
       <c r="E25" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="7" t="s">
         <v>8</v>
       </c>
@@ -7445,7 +7706,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7465,18 +7726,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -7556,7 +7817,7 @@
       <c r="G4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
@@ -7570,7 +7831,7 @@
       <c r="D5" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="23" t="s">
         <v>220</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -7593,7 +7854,7 @@
       <c r="D6" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="1" t="s">
         <v>222</v>
       </c>
@@ -7604,17 +7865,59 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
+    <row r="7" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="23"/>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="32"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="32"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="32"/>
+    </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="17"/>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="17"/>
+      <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="17"/>
+      <c r="C14" s="23"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="17"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="20" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -7629,53 +7932,53 @@
       <c r="A31" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="28"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C32" s="21"/>
+      <c r="C32" s="28"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="C33" s="21"/>
+      <c r="C33" s="28"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="21"/>
+      <c r="C34" s="28"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="23"/>
+      <c r="C35" s="30"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="C12:C15"/>
@@ -7685,6 +7988,7 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="G31:G123">
     <cfRule type="cellIs" dxfId="105" priority="119" operator="equal">
@@ -8110,6 +8414,308 @@
       <formula>"Fallo"</formula>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G6" sqref="G2:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
